--- a/biology/Zoologie/Claire_Athias-Henriot/Claire_Athias-Henriot.xlsx
+++ b/biology/Zoologie/Claire_Athias-Henriot/Claire_Athias-Henriot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Athias-Henriot (1921-2004), est une acarologiste d'origine belge mais ayant fait l'essentiel de sa carrière en Algérie et en France, grande spécialiste des Mésostigmates (Mesostigmata).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire Athias-Henriot naît le 20 octobre 1921 à Ixelles. À la suite des invasions par les troupes allemandes, elle quitte son pays natal pour la France en 1940. Elle entreprend des études supérieures de biologie à l'université de Clermont-Ferrand et part pour l'Algérie l'année suivante. D'abord infirmière à l'hôpital universitaire d'Alger, elle travaille un temps sur les fourmis puis obtient un poste de chercheur-assistant à l'Institut National de la Recherche Agronomique d'Algérie et s'intéresse aux acariens[1]. Avec le médecin Jean Athias, elle a un fils, Pierre, puis une fille Françoise Athias-Binche qui naît à Rovego en juin 1946[2]. En 1962, lors de l'indépendance algérienne, elle déménage à Dijon et travaille à l'Institut national de la recherche agronomique où elle devient une acarologiste renommée. En 1972, elle figure parmi les membres fondateurs de la Société internationale des acarologues de langue française. De 1980 à sa retraite en 1987, elle travaille enfin à la station biologique de Les Eyzies rattachée à l'université de Paris[1]. Claire Athias-Henriot meurt le 11 juillet 2004 aux Eyzies[3]. Ses collections sont en partie au Muséum national d'histoire naturelle de Paris et en partie au Muséum d'histoire naturelle de Genève.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Athias-Henriot naît le 20 octobre 1921 à Ixelles. À la suite des invasions par les troupes allemandes, elle quitte son pays natal pour la France en 1940. Elle entreprend des études supérieures de biologie à l'université de Clermont-Ferrand et part pour l'Algérie l'année suivante. D'abord infirmière à l'hôpital universitaire d'Alger, elle travaille un temps sur les fourmis puis obtient un poste de chercheur-assistant à l'Institut National de la Recherche Agronomique d'Algérie et s'intéresse aux acariens. Avec le médecin Jean Athias, elle a un fils, Pierre, puis une fille Françoise Athias-Binche qui naît à Rovego en juin 1946. En 1962, lors de l'indépendance algérienne, elle déménage à Dijon et travaille à l'Institut national de la recherche agronomique où elle devient une acarologiste renommée. En 1972, elle figure parmi les membres fondateurs de la Société internationale des acarologues de langue française. De 1980 à sa retraite en 1987, elle travaille enfin à la station biologique de Les Eyzies rattachée à l'université de Paris. Claire Athias-Henriot meurt le 11 juillet 2004 aux Eyzies. Ses collections sont en partie au Muséum national d'histoire naturelle de Paris et en partie au Muséum d'histoire naturelle de Genève.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De nombreux taxons ont été dédiés à Claire Athias-Henriot, dont :
 Heteroparasitus athiasae Juvara-Bals, 2002
 Oplitis athiasae Hirschmann &amp; Zirngiebl-Nicol, 1973
-Pergamasus athiasae Juvara-Bals, 2002[4]
+Pergamasus athiasae Juvara-Bals, 2002
 Trachyuropoda athiasae Hirschmann, 1975</t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Athias-Henriot a décrit de très nombreux taxons, dont les genres suivants :
 Aclerogamasus Athias-Henriot, 1971
